--- a/Resultados/Mercado mundial - Tomates, frescos.xlsx
+++ b/Resultados/Mercado mundial - Tomates, frescos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Egypt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egypt'!$B$12:$B$73</f>
+              <f>'Egipto'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egypt'!$C$12:$C$73</f>
+              <f>'Egipto'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>5412458</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>35.5325</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>192317973.01</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>35.5325</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>8115675.59</v>
@@ -2161,10 +2160,10 @@
         <v>5244101</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>35.5883</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>186628501.06</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>35.5883</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>8051623.48</v>
@@ -2183,10 +2182,10 @@
         <v>5197689</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>36.5982</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>190226270.97</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>36.5982</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>8410336.640000001</v>
@@ -2205,10 +2204,10 @@
         <v>5093581</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>36.6231</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>186542571.08</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>36.6231</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>8111987.3</v>
@@ -2227,10 +2226,10 @@
         <v>5084138</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.7725</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>181872175.17</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.7725</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>8071753.04</v>
@@ -2249,10 +2248,10 @@
         <v>5032690</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>36.1641</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>182002890.7</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>36.1641</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>8073954.04</v>
@@ -2271,10 +2270,10 @@
         <v>4911825</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>36.6105</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>179824211.31</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>36.6105</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7530876.19</v>
@@ -2293,10 +2292,10 @@
         <v>4926829</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>36.2814</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>178752348.23</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>36.2814</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>7792926.91</v>
@@ -2315,10 +2314,10 @@
         <v>4890182</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>36.3659</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>177835841.96</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>36.3659</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7691771.25</v>
@@ -2337,10 +2336,10 @@
         <v>4983277</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>35.2819</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>175819640.55</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>35.2819</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7439648.59</v>
@@ -2359,10 +2358,10 @@
         <v>4907247</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>33.8883</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>166298104.44</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>33.8883</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>7165406</v>
@@ -2381,10 +2380,10 @@
         <v>4856456</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>33.7979</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>164137961.26</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>33.7979</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7022984</v>
@@ -2403,10 +2402,10 @@
         <v>4630226</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>34.6277</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>160333903.94</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>34.6277</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6829326</v>
@@ -2425,10 +2424,10 @@
         <v>4470949</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>34.442</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>153988386.81</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>34.442</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6887535</v>
@@ -2447,10 +2446,10 @@
         <v>4455599</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34.9871</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>155888604.85</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34.9871</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>6584356</v>
@@ -2469,10 +2468,10 @@
         <v>4254423</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>33.4177</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>142173090.01</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>33.4177</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5900260</v>
@@ -2491,10 +2490,10 @@
         <v>4250653</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>32.3746</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>137613014.39</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>32.3746</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6104385</v>
@@ -2513,10 +2512,10 @@
         <v>4180470</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>31.3087</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>130885213.36</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>31.3087</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5432965</v>
@@ -2535,10 +2534,10 @@
         <v>4194975</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>30.6922</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>128753209.69</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>30.6922</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4758047</v>
@@ -2557,10 +2556,10 @@
         <v>4172242</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>30.523</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>127349235.79</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>30.523</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4627430</v>
@@ -2579,10 +2578,10 @@
         <v>4015337</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>29.5189</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>118528391.44</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>29.5189</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4335783</v>
@@ -2601,10 +2600,10 @@
         <v>3947603</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>29.3906</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>116022494.78</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>29.3906</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4113434</v>
@@ -2623,10 +2622,10 @@
         <v>3821269</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>27.985</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>106938294.62</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>27.985</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3925888.78</v>
@@ -2645,10 +2644,10 @@
         <v>3852936</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>28.4065</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>109448564.69</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>28.4065</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3616321.51</v>
@@ -2667,10 +2666,10 @@
         <v>3978608</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>27.4213</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>109098495.89</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>27.4213</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3558543.34</v>
@@ -2689,10 +2688,10 @@
         <v>3657041</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>26.0273</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>95182895.65000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>26.0273</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3671565.94</v>
@@ -2711,10 +2710,10 @@
         <v>3405922</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>26.2292</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>89334688.22</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>26.2292</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3624016.47</v>
@@ -2733,10 +2732,10 @@
         <v>3400819</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>27.2712</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>92744484.06999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>27.2712</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3436340.27</v>
@@ -2755,10 +2754,10 @@
         <v>3243810</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>26.6772</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>86535897.04000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>26.6772</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3084346.58</v>
@@ -2777,10 +2776,10 @@
         <v>3115546</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>26.4746</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>82482695</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>26.4746</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2941898.02</v>
@@ -2799,10 +2798,10 @@
         <v>2977694</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>25.8845</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>77076013.76000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>25.8845</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2965575</v>
@@ -2821,10 +2820,10 @@
         <v>2875965</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>25.6382</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>73734637.56</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>25.6382</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2784350</v>
@@ -2843,10 +2842,10 @@
         <v>2863415</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>26.5004</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>75881734.05</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>26.5004</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2432290</v>
@@ -2865,10 +2864,10 @@
         <v>2901510</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>26.2999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>76309370</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>26.2999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2400916</v>
@@ -2887,10 +2886,10 @@
         <v>3038900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>24.553</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>74614259</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>24.553</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2374571</v>
@@ -2909,10 +2908,10 @@
         <v>2815479</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>23.9321</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>67380381</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>23.9321</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2315427</v>
@@ -2931,10 +2930,10 @@
         <v>2771198</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>23.8497</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>66092219</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>23.8497</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2350373</v>
@@ -2953,10 +2952,10 @@
         <v>2683207</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>24.3084</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>65224576</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>24.3084</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2381648</v>
@@ -2975,10 +2974,10 @@
         <v>2715518</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>24.0645</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>65347640</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>24.0645</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>2144305</v>
@@ -2997,10 +2996,10 @@
         <v>2645336</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>24.2242</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>64081092</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>24.2242</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2108030</v>
@@ -3019,10 +3018,10 @@
         <v>2570203</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.1675</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>59545102</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.1675</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1922339</v>
@@ -3041,10 +3040,10 @@
         <v>2516192</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22.8843</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>57581284</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22.8843</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1882936</v>
@@ -3063,10 +3062,10 @@
         <v>2475685</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>21.9378</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>54311122</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>21.9378</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1824956</v>
@@ -3085,10 +3084,10 @@
         <v>2443389</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>21.548</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>52650225</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>21.548</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1802113</v>
@@ -3107,10 +3106,10 @@
         <v>2450694</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.3783</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>54842453</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22.3783</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1770258</v>
@@ -3129,10 +3128,10 @@
         <v>2345808</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>21.6333</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>50747542</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>21.6333</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1732994</v>
@@ -3151,10 +3150,10 @@
         <v>2277871</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20.6693</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>47081912</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20.6693</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1635396</v>
@@ -3173,10 +3172,10 @@
         <v>2186717</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>20.5958</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>45037152</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>20.5958</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1580207</v>
@@ -3195,10 +3194,10 @@
         <v>2208166</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>21.3059</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>47046882</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>21.3059</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1470493</v>
@@ -3217,10 +3216,10 @@
         <v>2133926</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>20.9837</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>44777610</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>20.9837</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1515860</v>
@@ -3239,10 +3238,10 @@
         <v>2043529</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>20.3704</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>41627549</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>20.3704</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1539834</v>
@@ -3261,10 +3260,10 @@
         <v>1972786</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>19.4894</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>38448334</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>19.4894</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1447798</v>
@@ -3283,10 +3282,10 @@
         <v>1898161</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>19.872</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>37720308</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>19.872</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1453435</v>
@@ -3305,10 +3304,10 @@
         <v>1856571</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>19.3281</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>35884058</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>19.3281</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1483401</v>
@@ -3327,10 +3326,10 @@
         <v>1830730</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>18.8789</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>34562117</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>18.8789</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1414136</v>
@@ -3349,10 +3348,10 @@
         <v>1831682</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>19.2888</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>35330981</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>19.2888</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1359728</v>
@@ -3371,10 +3370,10 @@
         <v>1782460</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18.7719</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>33460075</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>18.7719</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1329977</v>
@@ -3392,10 +3391,10 @@
         <v>1736595</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>18.3004</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>31780432</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>18.3004</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1294306</v>
@@ -3413,10 +3412,10 @@
         <v>1678798</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>18.1438</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>30459820</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>18.1438</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1242026</v>
@@ -3434,10 +3433,10 @@
         <v>1707474</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>17.4684</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>29826854</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>17.4684</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1195074</v>
@@ -3455,10 +3454,10 @@
         <v>1682429</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>16.7347</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>28154910</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>16.7347</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1214855</v>
@@ -3476,10 +3475,10 @@
         <v>1716073</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>16.9761</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>29132305</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>16.9761</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1150759</v>
@@ -3497,10 +3496,10 @@
         <v>1680428</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16.4347</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>27617314</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>16.4347</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>992148</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4342,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1473.97</v>
+        <v>2770350.319999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0001816201231375243</v>
+        <v>0.3413579423275098</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>2768876.35</v>
+        <v>8115675.59</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3411763222043723</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>8115675.59</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>1156408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>60.6358</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>70119693.64</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>60.6358</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5041,10 +5031,10 @@
         <v>1139503</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>59.93680000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>68298136.16</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>59.93680000000001</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5061,10 +5051,10 @@
         <v>1112684</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>59.7971</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>66535275.98</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>59.7971</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5081,10 +5071,10 @@
         <v>1103576</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>58.576</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>64643043.89</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>58.576</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5101,10 +5091,10 @@
         <v>1086771</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>57.8498</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>62869502</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>57.8498</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5121,10 +5111,10 @@
         <v>1071339</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>56.8628</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>60919328</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>56.8628</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5141,10 +5131,10 @@
         <v>1058025</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>55.8673</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>59108956.75</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>55.8673</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.01</v>
@@ -5163,10 +5153,10 @@
         <v>1041813</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>55.0129</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>57313103.12</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>55.0129</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5183,10 +5173,10 @@
         <v>1024700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>54.129</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>55465998.91</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>54.129</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.04</v>
@@ -5205,10 +5195,10 @@
         <v>998140</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>52.57380000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>52476029.52</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>52.57380000000001</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5225,10 +5215,10 @@
         <v>980100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>51.5786</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>50552200</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>51.5786</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5247,10 +5237,10 @@
         <v>949510</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>50.6126</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>48057200</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>50.6126</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5269,10 +5259,10 @@
         <v>954920</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>51.523</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>49200300</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>51.523</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5291,10 +5281,10 @@
         <v>947000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>49.377</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>46760000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>49.377</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5313,10 +5303,10 @@
         <v>916700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>49.3793</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>45266000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>49.3793</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5335,10 +5325,10 @@
         <v>846400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>47.0558</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>39828000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>47.0558</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5357,10 +5347,10 @@
         <v>900000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>36000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>40</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5379,10 +5369,10 @@
         <v>860000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>37.6744</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>32400000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>37.6744</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5401,10 +5391,10 @@
         <v>900000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>31500000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>35</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5423,10 +5413,10 @@
         <v>880000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>34.0909</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>30000000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>34.0909</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5445,10 +5435,10 @@
         <v>870000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>32.9885</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>28700000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>32.9885</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5467,10 +5457,10 @@
         <v>780000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>34.6154</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>27000000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>34.6154</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>52</v>
@@ -5489,10 +5479,10 @@
         <v>730000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>32.8767</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>24000000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>32.8767</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5511,10 +5501,10 @@
         <v>670000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>33.1343</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>22200000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>33.1343</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.9</v>
@@ -5533,10 +5523,10 @@
         <v>775000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>23.871</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18500000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>23.871</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3</v>
@@ -5555,10 +5545,10 @@
         <v>705000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>24.1135</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17000000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>24.1135</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5575,10 +5565,10 @@
         <v>615000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>26.4228</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16250000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>26.4228</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4</v>
@@ -5597,10 +5587,10 @@
         <v>570000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>27.0175</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15400000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>27.0175</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3</v>
@@ -5619,10 +5609,10 @@
         <v>470000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>27.7447</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13040000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>27.7447</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1</v>
@@ -5641,10 +5631,10 @@
         <v>440000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>27.0455</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>11900000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>27.0455</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24</v>
@@ -5663,10 +5653,10 @@
         <v>380000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>27.1053</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10300000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>27.1053</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5685,10 +5675,10 @@
         <v>300000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>27.8333</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8350000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>27.8333</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5707,10 +5697,10 @@
         <v>310000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>26.6129</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8250000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>26.6129</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5729,10 +5719,10 @@
         <v>304000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>24.6711</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7500000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>24.6711</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>12</v>
@@ -5751,10 +5741,10 @@
         <v>300000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>22.7667</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6830000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>22.7667</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1</v>
@@ -5773,10 +5763,10 @@
         <v>300000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6600000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>22</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5795,10 +5785,10 @@
         <v>290000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>21.5517</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6250000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>21.5517</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -5817,10 +5807,10 @@
         <v>280000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>21.7857</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6100000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>21.7857</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -5839,10 +5829,10 @@
         <v>275000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.8182</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6000000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.8182</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5861,10 +5851,10 @@
         <v>250000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5800000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>23.2</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5883,10 +5873,10 @@
         <v>245000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.2653</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5700000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.2653</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5905,10 +5895,10 @@
         <v>240000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5400000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22.5</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5927,10 +5917,10 @@
         <v>230000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>22.8261</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5250000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>22.8261</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5949,10 +5939,10 @@
         <v>230000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>22.3913</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5150000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>22.3913</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5971,10 +5961,10 @@
         <v>225000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.2222</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22.2222</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5993,10 +5983,10 @@
         <v>220000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>23.6364</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5200000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>23.6364</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6015,10 +6005,10 @@
         <v>180000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>24.2222</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4360000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>24.2222</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6037,10 +6027,10 @@
         <v>170000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>24.2353</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4120000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>24.2353</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6059,10 +6049,10 @@
         <v>170000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>24.2353</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4120000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>24.2353</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6081,10 +6071,10 @@
         <v>165000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>24.303</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4010000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>24.303</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6103,10 +6093,10 @@
         <v>170000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>23.3529</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3970000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>23.3529</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6125,10 +6115,10 @@
         <v>160000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>23.1875</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3710000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>23.1875</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6147,10 +6137,10 @@
         <v>165000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>24.5455</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4050000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>24.5455</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6169,10 +6159,10 @@
         <v>150000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3645000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>24.3</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6191,10 +6181,10 @@
         <v>180000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>23.3333</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4200000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>23.3333</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6213,10 +6203,10 @@
         <v>190000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>21.0526</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>21.0526</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6235,10 +6225,10 @@
         <v>200000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3900000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>19.5</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6256,10 +6246,10 @@
         <v>200000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3850000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>19.25</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6277,10 +6267,10 @@
         <v>220000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>18.1818</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6298,10 +6288,10 @@
         <v>220000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>17.2727</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>17.2727</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6319,10 +6309,10 @@
         <v>250000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4250000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6340,10 +6330,10 @@
         <v>300000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4800000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6361,10 +6351,10 @@
         <v>300000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4800000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6700,7 +6690,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6779,10 +6769,10 @@
         <v>849000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>24.0577</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>20425000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>24.0577</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>37.19</v>
@@ -6801,10 +6791,10 @@
         <v>843000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>24.548</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>20694000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>24.548</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6821,10 +6811,10 @@
         <v>845000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>25.0663</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>21181000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>25.0663</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6841,10 +6831,10 @@
         <v>818000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>25.1222</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>20550000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>25.1222</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6861,10 +6851,10 @@
         <v>781000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>24.3367</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19007000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>24.3367</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -6883,10 +6873,10 @@
         <v>789000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25.0431</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>19759000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25.0431</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6903,10 +6893,10 @@
         <v>797000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>25.9824</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>20708000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>25.9824</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1.69</v>
@@ -6925,10 +6915,10 @@
         <v>774000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>24.2016</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18732000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>24.2016</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6945,10 +6935,10 @@
         <v>767000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.3625</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16385000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.3625</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6965,10 +6955,10 @@
         <v>882030</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.2418</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>18735910</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.2418</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6985,10 +6975,10 @@
         <v>880000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.7125</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>18227000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.7125</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4</v>
@@ -7007,10 +6997,10 @@
         <v>907000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.5656</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18653000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.5656</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2</v>
@@ -7029,10 +7019,10 @@
         <v>865000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.1052</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16526000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.1052</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -7051,10 +7041,10 @@
         <v>634400</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.5984</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>12433200</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.5984</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>62</v>
@@ -7073,10 +7063,10 @@
         <v>599100</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.6092</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>11148800</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.6092</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>42</v>
@@ -7095,10 +7085,10 @@
         <v>566000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.2032</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10303000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.2032</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>62</v>
@@ -7117,10 +7107,10 @@
         <v>596000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16.8708</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10055000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16.8708</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>33</v>
@@ -7139,10 +7129,10 @@
         <v>546100</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.9828</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9820400</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.9828</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>41</v>
@@ -7161,10 +7151,10 @@
         <v>505400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.4622</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8825400</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.4622</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>51</v>
@@ -7183,10 +7173,10 @@
         <v>502800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16.1607</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8125600</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16.1607</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>5</v>
@@ -7205,10 +7195,10 @@
         <v>478800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.9079</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7616700</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.9079</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>32</v>
@@ -7227,10 +7217,10 @@
         <v>458100</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16.2897</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7462300</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16.2897</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7247,10 +7237,10 @@
         <v>460000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15.7391</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7240000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15.7391</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7267,10 +7257,10 @@
         <v>460000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>16.1522</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7430000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>16.1522</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7287,10 +7277,10 @@
         <v>470000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.5957</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8270000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.5957</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7307,10 +7297,10 @@
         <v>410000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.0732</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6180000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.0732</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7327,10 +7317,10 @@
         <v>400000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7347,10 +7337,10 @@
         <v>374893</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.0046</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6000000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.0046</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7367,10 +7357,10 @@
         <v>350000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>15.0286</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5260000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>15.0286</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7387,10 +7377,10 @@
         <v>350000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>14.0857</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4930000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>14.0857</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7407,10 +7397,10 @@
         <v>310000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.129</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.129</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7427,10 +7417,10 @@
         <v>308653</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15.712</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4849568</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15.712</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7447,10 +7437,10 @@
         <v>289077</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.6825</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4244366</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.6825</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7467,10 +7457,10 @@
         <v>290279</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.8587</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4603446</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.8587</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7487,10 +7477,10 @@
         <v>344415</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13.356</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>4600000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13.356</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7507,10 +7497,10 @@
         <v>235776</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.1621</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3103301</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.1621</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7527,10 +7517,10 @@
         <v>293692</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.126799999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2386776</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.126799999999999</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7547,10 +7537,10 @@
         <v>250000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2280000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9.119999999999999</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7567,10 +7557,10 @@
         <v>260000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.846200000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.846200000000001</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7587,10 +7577,10 @@
         <v>230000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.1304</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.1304</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7607,10 +7597,10 @@
         <v>200000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7627,10 +7617,10 @@
         <v>180000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9.722200000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9.722200000000001</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7647,10 +7637,10 @@
         <v>190000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.473700000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.473700000000001</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7667,10 +7657,10 @@
         <v>160000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.375</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7687,10 +7677,10 @@
         <v>150000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.666700000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.666700000000001</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7707,10 +7697,10 @@
         <v>100000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9.5</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7727,10 +7717,10 @@
         <v>120000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1020000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.5</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7747,10 +7737,10 @@
         <v>115000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.1304</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1050000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.1304</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7767,10 +7757,10 @@
         <v>100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>830000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7787,10 +7777,10 @@
         <v>90000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.333299999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.333299999999999</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7807,10 +7797,10 @@
         <v>70000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.428600000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>660000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.428600000000001</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7827,10 +7817,10 @@
         <v>69000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.420299999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.420299999999999</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7847,10 +7837,10 @@
         <v>67000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.552200000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>640000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.552200000000001</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7867,10 +7857,10 @@
         <v>65000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.538500000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>620000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.538500000000001</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7887,10 +7877,10 @@
         <v>63000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.5238</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.5238</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7907,10 +7897,10 @@
         <v>62000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.354799999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.354799999999999</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7927,10 +7917,10 @@
         <v>60000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9.333299999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>560000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9.333299999999999</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7946,10 +7936,10 @@
         <v>58000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9.3103</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>540000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9.3103</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7965,10 +7955,10 @@
         <v>57000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.2105</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>525000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.2105</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -7984,10 +7974,10 @@
         <v>55000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.2727</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>510000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.2727</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -8003,10 +7993,10 @@
         <v>53000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.339600000000001</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>495000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.339600000000001</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8022,10 +8012,10 @@
         <v>52000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.230799999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>480000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.230799999999999</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8041,10 +8031,10 @@
         <v>50000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>464000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.279999999999999</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8378,7 +8368,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8457,10 +8447,10 @@
         <v>166323</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>79.9649</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13300000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>79.9649</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>626.65</v>
@@ -8479,10 +8469,10 @@
         <v>158719</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>81.9058</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13000000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>81.9058</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1125.46</v>
@@ -8501,10 +8491,10 @@
         <v>165204</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>79.2672</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>13095258</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>79.2672</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1610.32</v>
@@ -8523,10 +8513,10 @@
         <v>174437</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>75.69499999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13204015</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>75.69499999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4184.14</v>
@@ -8545,10 +8535,10 @@
         <v>173421</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>74.051</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>12841990</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>74.051</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1210.41</v>
@@ -8567,10 +8557,10 @@
         <v>169484</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>71.68819999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>12150000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>71.68819999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1042</v>
@@ -8589,10 +8579,10 @@
         <v>177474</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>71.8415</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>12750000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>71.8415</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>552.85</v>
@@ -8611,10 +8601,10 @@
         <v>180687</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>69.7338</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12600000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>69.7338</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>786.95</v>
@@ -8633,10 +8623,10 @@
         <v>186996</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>67.46130000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>12615000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>67.46130000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>494.34</v>
@@ -8655,10 +8645,10 @@
         <v>183029</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>64.74380000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11850000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>64.74380000000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>107</v>
@@ -8677,10 +8667,10 @@
         <v>189122</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>62.49930000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11820000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>62.49930000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>51</v>
@@ -8699,10 +8689,10 @@
         <v>189202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>59.9888</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>11350000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>59.9888</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>132</v>
@@ -8721,10 +8711,10 @@
         <v>181018</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>60.7864</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11003433</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>60.7864</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>681</v>
@@ -8743,10 +8733,10 @@
         <v>179125</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>56.1172</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10052000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>56.1172</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>492</v>
@@ -8765,10 +8755,10 @@
         <v>186946</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>57.4796</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10745572</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>57.4796</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -8787,10 +8777,10 @@
         <v>195205</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>56.276</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10985355</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>56.276</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>84</v>
@@ -8809,10 +8799,10 @@
         <v>183533</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>54.1404</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9936552</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>54.1404</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25</v>
@@ -8831,10 +8821,10 @@
         <v>193910</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>50.8219</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9854877</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>50.8219</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8853,10 +8843,10 @@
         <v>201116</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>49.9712</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>10050000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>49.9712</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>56</v>
@@ -8875,10 +8865,10 @@
         <v>204889</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>46.0737</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9440000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>46.0737</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>40</v>
@@ -8897,10 +8887,10 @@
         <v>211290</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>46.4764</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>9820000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>46.4764</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11</v>
@@ -8919,10 +8909,10 @@
         <v>210630</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>44.8654</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9450000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>44.8654</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>74</v>
@@ -8941,10 +8931,10 @@
         <v>202468</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>41.6115</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8425000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>41.6115</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>55</v>
@@ -8963,10 +8953,10 @@
         <v>208410</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>42.6563</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8890000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>42.6563</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8985,10 +8975,10 @@
         <v>213255</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>41.9967</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8956000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>41.9967</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>67</v>
@@ -9007,10 +8997,10 @@
         <v>197888</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>41.8924</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8290000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>41.8924</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>82</v>
@@ -9029,10 +9019,10 @@
         <v>187625</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>35.1765</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6600000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>35.1765</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>30</v>
@@ -9051,10 +9041,10 @@
         <v>188082</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>41.4713</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7800000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>41.4713</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13</v>
@@ -9073,10 +9063,10 @@
         <v>182699</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>39.6828</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7250000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>39.6828</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9095,10 +9085,10 @@
         <v>167466</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>37.9181</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6350000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>37.9181</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>13</v>
@@ -9117,10 +9107,10 @@
         <v>162315</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>37.88930000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6150000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>37.88930000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2119</v>
@@ -9139,10 +9129,10 @@
         <v>171823</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>37.5386</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>6450000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>37.5386</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9161,10 +9151,10 @@
         <v>160915</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>38.5297</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6200000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>38.5297</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>129</v>
@@ -9183,10 +9173,10 @@
         <v>158880</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>37.7644</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6000000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>37.7644</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1678</v>
@@ -9205,10 +9195,10 @@
         <v>156982</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>36.6284</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5750000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>36.6284</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9227,10 +9217,10 @@
         <v>146258</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>35.8955</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5250000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>35.8955</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9249,10 +9239,10 @@
         <v>139000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>35.9712</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>35.9712</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9271,10 +9261,10 @@
         <v>137000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>36.4964</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>36.4964</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9293,10 +9283,10 @@
         <v>134000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>36.5672</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4900000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>36.5672</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9315,10 +9305,10 @@
         <v>108200</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>36.9686</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>36.9686</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9337,10 +9327,10 @@
         <v>108100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>34.2276</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3700000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>34.2276</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9359,10 +9349,10 @@
         <v>108000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>34.2593</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3700000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>34.2593</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9381,10 +9371,10 @@
         <v>107800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>33.3952</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3600000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>33.3952</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9403,10 +9393,10 @@
         <v>108000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>32.8704</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3550000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>32.8704</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9425,10 +9415,10 @@
         <v>107500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>32.5581</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3500000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>32.5581</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9447,10 +9437,10 @@
         <v>107000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>30.8411</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>30.8411</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9469,10 +9459,10 @@
         <v>106000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>27.3585</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>27.3585</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9491,10 +9481,10 @@
         <v>105000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>26.1905</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2750000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>26.1905</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9513,10 +9503,10 @@
         <v>100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>23</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9535,10 +9525,10 @@
         <v>97000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>22.1649</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2150000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>22.1649</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9557,10 +9547,10 @@
         <v>90000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>22.7778</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2050000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>22.7778</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9579,10 +9569,10 @@
         <v>84000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>23.8095</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>23.8095</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9601,10 +9591,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>23.75</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9623,10 +9613,10 @@
         <v>75000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>24.1333</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1810000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>24.1333</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9645,10 +9635,10 @@
         <v>67500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>23.0941</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1558855</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>23.0941</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9667,10 +9657,10 @@
         <v>60000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>22.4484</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1346906</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>22.4484</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9689,10 +9679,10 @@
         <v>63300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>21.0111</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1330000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>21.0111</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9710,10 +9700,10 @@
         <v>62400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>21.1619</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1320500</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>21.1619</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9731,10 +9721,10 @@
         <v>57400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>22.3293</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1281700</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>22.3293</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9752,10 +9742,10 @@
         <v>57000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>21.9298</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1250000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>21.9298</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9773,10 +9763,10 @@
         <v>57000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>21.1404</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1205000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>21.1404</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9794,10 +9784,10 @@
         <v>57000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1140000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9815,10 +9805,10 @@
         <v>57000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>19.6491</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1120000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>19.6491</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10154,7 +10144,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10233,10 +10223,10 @@
         <v>122135</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>101.2818</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12370057</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>101.2818</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2014493.07</v>
@@ -10255,10 +10245,10 @@
         <v>110076</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>92.97499999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>10234317</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>92.97499999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1982138.12</v>
@@ -10277,10 +10267,10 @@
         <v>112180</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>93.1157</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10445714</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>93.1157</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1939754.5</v>
@@ -10299,10 +10289,10 @@
         <v>110440</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>99.0502</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10939109</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>99.0502</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1838371.79</v>
@@ -10321,10 +10311,10 @@
         <v>110763</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>98.0384</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>10858982</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>98.0384</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1861233.16</v>
@@ -10343,10 +10333,10 @@
         <v>130270</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>96.8227</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>12613090</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>96.8227</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1856197.96</v>
@@ -10365,10 +10355,10 @@
         <v>125650</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>88.648</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>11138620</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>88.648</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1788814.46</v>
@@ -10387,10 +10377,10 @@
         <v>141289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>91.13980000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12877049</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>91.13980000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1786398.89</v>
@@ -10409,10 +10399,10 @@
         <v>162980</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>89.4615</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>14580440</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>89.4615</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1573214.8</v>
@@ -10431,10 +10421,10 @@
         <v>163380</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>97.1661</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15875000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>97.1661</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1550475.42</v>
@@ -10453,10 +10443,10 @@
         <v>152410</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>90.7328</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>13828580</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>90.7328</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1537403</v>
@@ -10475,10 +10465,10 @@
         <v>152690</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>94.8245</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>14478750</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>94.8245</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1532718</v>
@@ -10497,10 +10487,10 @@
         <v>148850</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>92.45350000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>13761700</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>92.45350000000001</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1491017</v>
@@ -10519,10 +10509,10 @@
         <v>158720</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>88.53960000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14053000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>88.53960000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1532492</v>
@@ -10541,10 +10531,10 @@
         <v>176200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>87.7269</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15457480</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>87.7269</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1189602</v>
@@ -10563,10 +10553,10 @@
         <v>161940</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>84.60339999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13700670</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>84.60339999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1116335</v>
@@ -10585,10 +10575,10 @@
         <v>170658</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>83.12050000000001</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>14185180</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>83.12050000000001</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1070808</v>
@@ -10607,10 +10597,10 @@
         <v>169808</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>72.1825</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>12257172</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>72.1825</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>992337</v>
@@ -10629,10 +10619,10 @@
         <v>164280</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>72.5485</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11918268</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>72.5485</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>951787</v>
@@ -10651,10 +10641,10 @@
         <v>173620</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>80.565</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13987702</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>80.565</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>931972</v>
@@ -10673,10 +10663,10 @@
         <v>167388</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>68.2474</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11423794</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>68.2474</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>939257</v>
@@ -10695,10 +10685,10 @@
         <v>178557</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>75.41849999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13466501</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>75.41849999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>860097</v>
@@ -10717,10 +10707,10 @@
         <v>164183</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>66.7475</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10958809</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>66.7475</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>823541</v>
@@ -10739,10 +10729,10 @@
         <v>168509</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>74.90560000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12622261</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>74.90560000000001</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>730063.2</v>
@@ -10761,10 +10751,10 @@
         <v>195590</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>68.05460000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13310800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>68.05460000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>740656</v>
@@ -10783,10 +10773,10 @@
         <v>170640</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>58.6556</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10009000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>58.6556</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>847320</v>
@@ -10805,10 +10795,10 @@
         <v>161300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>65.3069</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>10534000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>65.3069</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>742464</v>
@@ -10827,10 +10817,10 @@
         <v>186060</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>63.8181</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11874000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>63.8181</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>737150</v>
@@ -10849,10 +10839,10 @@
         <v>192380</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>61.25380000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11784000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>61.25380000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>620944</v>
@@ -10871,10 +10861,10 @@
         <v>192340</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>63.2474</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>12165000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>63.2474</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>396040</v>
@@ -10893,10 +10883,10 @@
         <v>178760</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>58.4079</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10441000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>58.4079</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>418395</v>
@@ -10915,10 +10905,10 @@
         <v>164220</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>59.2498</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9730000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>59.2498</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>196027</v>
@@ -10937,10 +10927,10 @@
         <v>197350</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>57.7943</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11405700</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>57.7943</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>360770</v>
@@ -10959,10 +10949,10 @@
         <v>198000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>55.1869</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>10927000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>55.1869</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>360995</v>
@@ -10981,10 +10971,10 @@
         <v>187000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>54.7203</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10232700</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>54.7203</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>393703</v>
@@ -11003,10 +10993,10 @@
         <v>167800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>49.7527</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8348500</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>49.7527</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>370491</v>
@@ -11025,10 +11015,10 @@
         <v>156600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>53.4599</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8371820</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>53.4599</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>417086</v>
@@ -11047,10 +11037,10 @@
         <v>153000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>53.165</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8134250</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>53.165</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>445018</v>
@@ -11069,10 +11059,10 @@
         <v>157400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>49.936</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7859930</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>49.936</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>386015</v>
@@ -11091,10 +11081,10 @@
         <v>167700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>49.1691</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8245650</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>49.1691</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>373796</v>
@@ -11113,10 +11103,10 @@
         <v>168000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>45.32080000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7613900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>45.32080000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>333977</v>
@@ -11135,10 +11125,10 @@
         <v>167940</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>46.6571</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7835600</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>46.6571</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>268813</v>
@@ -11157,10 +11147,10 @@
         <v>154130</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>41.2898</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6364000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>41.2898</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>238536</v>
@@ -11179,10 +11169,10 @@
         <v>157530</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>43.0771</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6785930</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>43.0771</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>295633</v>
@@ -11201,10 +11191,10 @@
         <v>177060</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>43.52030000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7705700</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>43.52030000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>323556</v>
@@ -11223,10 +11213,10 @@
         <v>172300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>39.4257</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6793054</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>39.4257</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>370930</v>
@@ -11245,10 +11235,10 @@
         <v>190640</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>41.7515</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7959510</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>41.7515</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>359185</v>
@@ -11267,10 +11257,10 @@
         <v>176660</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>38.8237</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6858600</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>38.8237</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>296352</v>
@@ -11289,10 +11279,10 @@
         <v>205950</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>42.108</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8672150</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>42.108</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>257253</v>
@@ -11311,10 +11301,10 @@
         <v>186900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>38.9466</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7279122</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>38.9466</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>270266</v>
@@ -11333,10 +11323,10 @@
         <v>175670</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>35.6945</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6270452</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>35.6945</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>341600</v>
@@ -11355,10 +11345,10 @@
         <v>166000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>37.1613</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6168779</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>37.1613</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>266188</v>
@@ -11377,10 +11367,10 @@
         <v>159640</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>36.40819999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5812212</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>36.40819999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>260975</v>
@@ -11399,10 +11389,10 @@
         <v>158700</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>34.1304</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5416500</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>34.1304</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>293349</v>
@@ -11421,10 +11411,10 @@
         <v>167606</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>31.7399</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5319794</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>31.7399</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>203953</v>
@@ -11443,10 +11433,10 @@
         <v>207870</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>34.6492</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7202519</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>34.6492</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>177051</v>
@@ -11465,10 +11455,10 @@
         <v>192430</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>29.3083</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5639802</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>29.3083</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>165919</v>
@@ -11486,10 +11476,10 @@
         <v>182300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>28.3528</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5168722</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>28.3528</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>163568</v>
@@ -11507,10 +11497,10 @@
         <v>165800</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>30.2597</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5017059</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>30.2597</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>122001</v>
@@ -11528,10 +11518,10 @@
         <v>173454</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>29.3393</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5089017</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>29.3393</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>113039</v>
@@ -11549,10 +11539,10 @@
         <v>164454</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>28.1348</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4626881</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>28.1348</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>109757</v>
@@ -11570,10 +11560,10 @@
         <v>196808</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>29.6746</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5840198</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>29.6746</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>107133</v>
@@ -11591,10 +11581,10 @@
         <v>189422</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>25.4496</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4820709</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>25.4496</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>79901</v>
@@ -11930,7 +11920,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12009,10 +11999,10 @@
         <v>155874</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>39.8463</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6211015.96</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>39.8463</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -12029,10 +12019,10 @@
         <v>157702</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>40.37730000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6367592</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>40.37730000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0</v>
@@ -12051,10 +12041,10 @@
         <v>149956</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>42.60769999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6389295</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>42.60769999999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.02</v>
@@ -12073,10 +12063,10 @@
         <v>159668</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>40.6716</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6493950</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>40.6716</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.04</v>
@@ -12095,10 +12085,10 @@
         <v>174730</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>39</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6814460</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>39</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.05</v>
@@ -12117,10 +12107,10 @@
         <v>174802</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>38.7739</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6777754</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>38.7739</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>242.38</v>
@@ -12139,10 +12129,10 @@
         <v>166206</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>40.4859</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6729004</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>40.4859</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>77.2</v>
@@ -12161,10 +12151,10 @@
         <v>184972</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>39.5774</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7320714</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>39.5774</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>252.45</v>
@@ -12183,10 +12173,10 @@
         <v>196853</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>39.3076</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7737827</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>39.3076</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>31.3</v>
@@ -12205,10 +12195,10 @@
         <v>214016</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>38.7263</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8288043</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>38.7263</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12225,10 +12215,10 @@
         <v>205276</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>40.3873</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8290551</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>40.3873</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12247,10 +12237,10 @@
         <v>216395</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>39.8587</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8625219</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>39.8587</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>146</v>
@@ -12269,10 +12259,10 @@
         <v>212446</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.1521</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8105263</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>38.1521</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5341</v>
@@ -12291,10 +12281,10 @@
         <v>216385</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>39.4898</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8544993</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>39.4898</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23</v>
@@ -12313,10 +12303,10 @@
         <v>251838</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>40.8141</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10278539</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>40.8141</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>36</v>
@@ -12335,10 +12325,10 @@
         <v>240174</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>38.3226</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9204097</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>38.3226</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12357,10 +12347,10 @@
         <v>225627</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>38.289</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8639024</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>38.289</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12379,10 +12369,10 @@
         <v>220110</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>38.9627</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>8576070</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>38.9627</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>42</v>
@@ -12401,10 +12391,10 @@
         <v>195000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>38.9744</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7600000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>38.9744</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>71</v>
@@ -12423,10 +12413,10 @@
         <v>195164</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>39.1508</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7640818</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>39.1508</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12445,10 +12435,10 @@
         <v>192976</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>37.0004</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7140198</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>37.0004</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12467,10 +12457,10 @@
         <v>191171</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>35.4545</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6777875</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>35.4545</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3</v>
@@ -12489,10 +12479,10 @@
         <v>180721</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>35.0193</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6328720</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>35.0193</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8</v>
@@ -12511,10 +12501,10 @@
         <v>195444</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>34.7191</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6785640</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>34.7191</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>37</v>
@@ -12533,10 +12523,10 @@
         <v>189411</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>33.1225</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6273760</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>33.1225</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20</v>
@@ -12555,10 +12545,10 @@
         <v>177243</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>32.4598</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5753279</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>32.4598</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>51</v>
@@ -12577,10 +12567,10 @@
         <v>168626</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>34.8312</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5873441</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>34.8312</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12599,10 +12589,10 @@
         <v>173152</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>34.6251</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5995411</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>34.6251</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12621,10 +12611,10 @@
         <v>149342</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>33.7092</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5034197</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>33.7092</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17</v>
@@ -12643,10 +12633,10 @@
         <v>148520</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>33.7374</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5010682</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>33.7374</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12665,10 +12655,10 @@
         <v>147447</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32.3002</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4762570</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>32.3002</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12687,10 +12677,10 @@
         <v>152048</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>30.8717</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4693985</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>30.8717</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>6</v>
@@ -12709,10 +12699,10 @@
         <v>137809</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>27.5453</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3795987</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>27.5453</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12731,10 +12721,10 @@
         <v>155873</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>27.1621</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4233842</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>27.1621</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12753,10 +12743,10 @@
         <v>178534</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>22.3879</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3997000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>22.3879</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>29</v>
@@ -12775,10 +12765,10 @@
         <v>168872</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>24.942</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4212000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>24.942</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5</v>
@@ -12797,10 +12787,10 @@
         <v>168450</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>29.2134</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4921000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>29.2134</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12819,10 +12809,10 @@
         <v>165510</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>26.9228</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4456000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>26.9228</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>31</v>
@@ -12841,10 +12831,10 @@
         <v>144930</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>24.674</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3576000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>24.674</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12863,10 +12853,10 @@
         <v>134845</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>22.1959</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2993000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>22.1959</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>5</v>
@@ -12885,10 +12875,10 @@
         <v>136100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>21.0287</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2862000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>21.0287</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12907,10 +12897,10 @@
         <v>135134</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>19.6623</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2657045</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>19.6623</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12929,10 +12919,10 @@
         <v>136388</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>17.9893</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2453525</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>17.9893</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12951,10 +12941,10 @@
         <v>139322</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>17.7129</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2467793</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>17.7129</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12973,10 +12963,10 @@
         <v>138057</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>17.5401</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2421528</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>17.5401</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12995,10 +12985,10 @@
         <v>130593</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16.8349</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2198523</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16.8349</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13017,10 +13007,10 @@
         <v>123276</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15.9561</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1967000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15.9561</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13039,10 +13029,10 @@
         <v>129385</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>15.9678</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2066000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>15.9678</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>42</v>
@@ -13061,10 +13051,10 @@
         <v>136526</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.433</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2107000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.433</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13083,10 +13073,10 @@
         <v>117202</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>14.7523</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1729000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>14.7523</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13105,10 +13095,10 @@
         <v>115942</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.6016</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1577000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.6016</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13127,10 +13117,10 @@
         <v>107960</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.4502</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1668000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.4502</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13149,10 +13139,10 @@
         <v>104180</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15.7228</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1638000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15.7228</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13171,10 +13161,10 @@
         <v>99979</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>15.5533</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1555000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>15.5533</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13193,10 +13183,10 @@
         <v>101239</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.2906</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1548000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.2906</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13215,10 +13205,10 @@
         <v>98300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>15.2187</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1496000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>15.2187</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13237,10 +13227,10 @@
         <v>88281</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1229755</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.93</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13258,10 +13248,10 @@
         <v>85538</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>15.969</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1365959</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>15.969</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13279,10 +13269,10 @@
         <v>80179</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15.4923</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1242154</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>15.4923</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13300,10 +13290,10 @@
         <v>78445</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>15.2077</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1192968</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>15.2077</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13321,10 +13311,10 @@
         <v>71517</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>14.7645</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1055913</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>14.7645</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13342,10 +13332,10 @@
         <v>66505</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>14.8399</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>986926</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>14.8399</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13363,10 +13353,10 @@
         <v>61089</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>14.2274</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>869135</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>14.2274</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Tomates, frescos.xlsx
+++ b/Resultados/Mercado mundial - Tomates, frescos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Egypt" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egipto'!$B$12:$B$74</f>
+              <f>'Egypt'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egipto'!$C$12:$C$74</f>
+              <f>'Egypt'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>5412458</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>192317973.01</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>35.5325</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>192317973.01</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>8115675.59</v>
@@ -2160,10 +2161,10 @@
         <v>5244101</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>186628501.06</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>35.5883</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>186628501.06</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>8051623.48</v>
@@ -2182,10 +2183,10 @@
         <v>5197689</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>190226270.97</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>36.5982</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>190226270.97</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>8410336.640000001</v>
@@ -2204,10 +2205,10 @@
         <v>5093581</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>186542571.08</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>36.6231</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>186542571.08</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>8111987.3</v>
@@ -2226,10 +2227,10 @@
         <v>5084138</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>181872175.17</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.7725</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>181872175.17</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>8071753.04</v>
@@ -2248,10 +2249,10 @@
         <v>5032690</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>182002890.7</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>36.1641</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>182002890.7</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>8073954.04</v>
@@ -2270,10 +2271,10 @@
         <v>4911825</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>179824211.31</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>36.6105</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>179824211.31</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7530876.19</v>
@@ -2292,10 +2293,10 @@
         <v>4926829</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>178752348.23</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>36.2814</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>178752348.23</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>7792926.91</v>
@@ -2314,10 +2315,10 @@
         <v>4890182</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>177835841.96</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>36.3659</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>177835841.96</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7691771.25</v>
@@ -2336,10 +2337,10 @@
         <v>4983277</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>175819640.55</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>35.2819</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>175819640.55</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7439648.59</v>
@@ -2358,10 +2359,10 @@
         <v>4907247</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>166298104.44</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>33.8883</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>166298104.44</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>7165406</v>
@@ -2380,10 +2381,10 @@
         <v>4856456</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>164137961.26</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>33.7979</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>164137961.26</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7022984</v>
@@ -2402,10 +2403,10 @@
         <v>4630226</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>160333903.94</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>34.6277</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>160333903.94</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6829326</v>
@@ -2424,10 +2425,10 @@
         <v>4470949</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>153988386.81</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>34.442</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>153988386.81</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6887535</v>
@@ -2446,10 +2447,10 @@
         <v>4455599</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>155888604.85</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34.9871</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>155888604.85</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>6584356</v>
@@ -2468,10 +2469,10 @@
         <v>4254423</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>142173090.01</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>33.4177</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>142173090.01</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5900260</v>
@@ -2490,10 +2491,10 @@
         <v>4250653</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>137613014.39</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>32.3746</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>137613014.39</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6104385</v>
@@ -2512,10 +2513,10 @@
         <v>4180470</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>130885213.36</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>31.3087</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>130885213.36</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5432965</v>
@@ -2534,10 +2535,10 @@
         <v>4194975</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>128753209.69</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>30.6922</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>128753209.69</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4758047</v>
@@ -2556,10 +2557,10 @@
         <v>4172242</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>127349235.79</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>30.523</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>127349235.79</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4627430</v>
@@ -2578,10 +2579,10 @@
         <v>4015337</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>118528391.44</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>29.5189</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>118528391.44</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4335783</v>
@@ -2600,10 +2601,10 @@
         <v>3947603</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>116022494.78</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>29.3906</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>116022494.78</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4113434</v>
@@ -2622,10 +2623,10 @@
         <v>3821269</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>106938294.62</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>27.985</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>106938294.62</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3925888.78</v>
@@ -2644,10 +2645,10 @@
         <v>3852936</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>109448564.69</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>28.4065</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>109448564.69</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3616321.51</v>
@@ -2666,10 +2667,10 @@
         <v>3978608</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>109098495.89</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>27.4213</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>109098495.89</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3558543.34</v>
@@ -2688,10 +2689,10 @@
         <v>3657041</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>95182895.65000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>26.0273</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>95182895.65000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3671565.94</v>
@@ -2710,10 +2711,10 @@
         <v>3405922</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>89334688.22</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>26.2292</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>89334688.22</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3624016.47</v>
@@ -2732,10 +2733,10 @@
         <v>3400819</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>92744484.06999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>27.2712</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>92744484.06999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3436340.27</v>
@@ -2754,10 +2755,10 @@
         <v>3243810</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>86535897.04000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>26.6772</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>86535897.04000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3084346.58</v>
@@ -2776,10 +2777,10 @@
         <v>3115546</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>82482695</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>26.4746</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>82482695</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2941898.02</v>
@@ -2798,10 +2799,10 @@
         <v>2977694</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>77076013.76000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>25.8845</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>77076013.76000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2965575</v>
@@ -2820,10 +2821,10 @@
         <v>2875965</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>73734637.56</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>25.6382</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>73734637.56</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2784350</v>
@@ -2842,10 +2843,10 @@
         <v>2863415</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>75881734.05</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>26.5004</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>75881734.05</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2432290</v>
@@ -2864,10 +2865,10 @@
         <v>2901510</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>76309370</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>26.2999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>76309370</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2400916</v>
@@ -2886,10 +2887,10 @@
         <v>3038900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>74614259</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>24.553</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>74614259</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2374571</v>
@@ -2908,10 +2909,10 @@
         <v>2815479</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>67380381</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>23.9321</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>67380381</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2315427</v>
@@ -2930,10 +2931,10 @@
         <v>2771198</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>66092219</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>23.8497</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>66092219</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2350373</v>
@@ -2952,10 +2953,10 @@
         <v>2683207</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>65224576</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>24.3084</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>65224576</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2381648</v>
@@ -2974,10 +2975,10 @@
         <v>2715518</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>65347640</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>24.0645</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>65347640</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>2144305</v>
@@ -2996,10 +2997,10 @@
         <v>2645336</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>64081092</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>24.2242</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>64081092</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2108030</v>
@@ -3018,10 +3019,10 @@
         <v>2570203</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>59545102</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.1675</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>59545102</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1922339</v>
@@ -3040,10 +3041,10 @@
         <v>2516192</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>57581284</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22.8843</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>57581284</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1882936</v>
@@ -3062,10 +3063,10 @@
         <v>2475685</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>54311122</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>21.9378</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>54311122</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1824956</v>
@@ -3084,10 +3085,10 @@
         <v>2443389</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>52650225</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>21.548</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>52650225</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1802113</v>
@@ -3106,10 +3107,10 @@
         <v>2450694</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>54842453</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.3783</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>54842453</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1770258</v>
@@ -3128,10 +3129,10 @@
         <v>2345808</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>50747542</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>21.6333</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>50747542</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1732994</v>
@@ -3150,10 +3151,10 @@
         <v>2277871</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>47081912</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20.6693</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>47081912</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1635396</v>
@@ -3172,10 +3173,10 @@
         <v>2186717</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>45037152</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>20.5958</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>45037152</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1580207</v>
@@ -3194,10 +3195,10 @@
         <v>2208166</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>47046882</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>21.3059</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>47046882</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1470493</v>
@@ -3216,10 +3217,10 @@
         <v>2133926</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>44777610</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>20.9837</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>44777610</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1515860</v>
@@ -3238,10 +3239,10 @@
         <v>2043529</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>41627549</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>20.3704</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>41627549</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1539834</v>
@@ -3260,10 +3261,10 @@
         <v>1972786</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>38448334</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>19.4894</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>38448334</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1447798</v>
@@ -3282,10 +3283,10 @@
         <v>1898161</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>37720308</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>19.872</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>37720308</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1453435</v>
@@ -3304,10 +3305,10 @@
         <v>1856571</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>35884058</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>19.3281</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>35884058</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1483401</v>
@@ -3326,10 +3327,10 @@
         <v>1830730</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>34562117</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>18.8789</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>34562117</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1414136</v>
@@ -3348,10 +3349,10 @@
         <v>1831682</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>35330981</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>19.2888</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>35330981</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1359728</v>
@@ -3370,10 +3371,10 @@
         <v>1782460</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>33460075</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18.7719</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>33460075</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1329977</v>
@@ -3391,10 +3392,10 @@
         <v>1736595</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>31780432</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>18.3004</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>31780432</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1294306</v>
@@ -3412,10 +3413,10 @@
         <v>1678798</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>30459820</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>18.1438</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>30459820</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1242026</v>
@@ -3433,10 +3434,10 @@
         <v>1707474</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>29826854</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>17.4684</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>29826854</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1195074</v>
@@ -3454,10 +3455,10 @@
         <v>1682429</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>28154910</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>16.7347</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>28154910</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1214855</v>
@@ -3475,10 +3476,10 @@
         <v>1716073</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>29132305</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>16.9761</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>29132305</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1150759</v>
@@ -3496,10 +3497,10 @@
         <v>1680428</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>27617314</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16.4347</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>27617314</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>992148</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4342,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>2770350.319999999</v>
+        <v>1473.97</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3413579423275098</v>
+        <v>0.0001816201231375243</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>2768876.35</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3411763222043723</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>8115675.59</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>1156408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>70119693.64</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>60.6358</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>70119693.64</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5041,10 @@
         <v>1139503</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>68298136.16</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>59.93680000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>68298136.16</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5061,10 @@
         <v>1112684</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>66535275.98</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>59.7971</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>66535275.98</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5081,10 @@
         <v>1103576</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>64643043.89</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>58.576</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>64643043.89</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5101,10 @@
         <v>1086771</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>62869502</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>57.8498</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>62869502</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5121,10 @@
         <v>1071339</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>60919328</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>56.8628</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>60919328</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5131,10 +5141,10 @@
         <v>1058025</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>59108956.75</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>55.8673</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>59108956.75</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.01</v>
@@ -5153,10 +5163,10 @@
         <v>1041813</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>57313103.12</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>55.0129</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>57313103.12</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5173,10 +5183,10 @@
         <v>1024700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>55465998.91</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>54.129</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>55465998.91</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.04</v>
@@ -5195,10 +5205,10 @@
         <v>998140</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>52476029.52</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>52.57380000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>52476029.52</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5215,10 +5225,10 @@
         <v>980100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>50552200</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>51.5786</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>50552200</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5237,10 +5247,10 @@
         <v>949510</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>48057200</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>50.6126</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>48057200</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5259,10 +5269,10 @@
         <v>954920</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>49200300</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>51.523</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>49200300</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5281,10 +5291,10 @@
         <v>947000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>46760000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>49.377</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>46760000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5303,10 +5313,10 @@
         <v>916700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>45266000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>49.3793</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>45266000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5325,10 +5335,10 @@
         <v>846400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>39828000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>47.0558</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>39828000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5347,10 +5357,10 @@
         <v>900000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>40</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>36000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5369,10 +5379,10 @@
         <v>860000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>32400000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>37.6744</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>32400000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5391,10 +5401,10 @@
         <v>900000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>31500000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>35</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>31500000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5413,10 +5423,10 @@
         <v>880000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>34.0909</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>30000000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5435,10 +5445,10 @@
         <v>870000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>28700000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>32.9885</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>28700000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5457,10 +5467,10 @@
         <v>780000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>34.6154</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>27000000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>52</v>
@@ -5479,10 +5489,10 @@
         <v>730000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>32.8767</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>24000000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5501,10 +5511,10 @@
         <v>670000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>22200000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>33.1343</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>22200000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.9</v>
@@ -5523,10 +5533,10 @@
         <v>775000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>23.871</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18500000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3</v>
@@ -5545,10 +5555,10 @@
         <v>705000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>24.1135</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17000000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5565,10 +5575,10 @@
         <v>615000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16250000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>26.4228</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16250000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4</v>
@@ -5587,10 +5597,10 @@
         <v>570000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15400000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>27.0175</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15400000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3</v>
@@ -5609,10 +5619,10 @@
         <v>470000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13040000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>27.7447</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13040000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1</v>
@@ -5631,10 +5641,10 @@
         <v>440000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>11900000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>27.0455</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>11900000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24</v>
@@ -5653,10 +5663,10 @@
         <v>380000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10300000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>27.1053</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10300000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5675,10 +5685,10 @@
         <v>300000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8350000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>27.8333</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8350000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5697,10 +5707,10 @@
         <v>310000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8250000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>26.6129</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8250000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5719,10 +5729,10 @@
         <v>304000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>24.6711</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7500000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>12</v>
@@ -5741,10 +5751,10 @@
         <v>300000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6830000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>22.7667</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6830000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1</v>
@@ -5763,10 +5773,10 @@
         <v>300000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6600000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>22</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6600000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5785,10 +5795,10 @@
         <v>290000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6250000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>21.5517</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6250000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -5807,10 +5817,10 @@
         <v>280000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>21.7857</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6100000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -5829,10 +5839,10 @@
         <v>275000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.8182</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6000000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5851,10 +5861,10 @@
         <v>250000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>23.2</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5800000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5873,10 +5883,10 @@
         <v>245000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.2653</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5700000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5895,10 +5905,10 @@
         <v>240000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22.5</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5400000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5917,10 +5927,10 @@
         <v>230000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>22.8261</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5250000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5939,10 +5949,10 @@
         <v>230000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5150000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>22.3913</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5150000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5961,10 +5971,10 @@
         <v>225000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.2222</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5983,10 +5993,10 @@
         <v>220000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>23.6364</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5200000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6005,10 +6015,10 @@
         <v>180000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4360000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>24.2222</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4360000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6027,10 +6037,10 @@
         <v>170000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4120000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>24.2353</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4120000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6049,10 +6059,10 @@
         <v>170000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4120000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>24.2353</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4120000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6071,10 +6081,10 @@
         <v>165000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4010000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>24.303</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4010000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6093,10 +6103,10 @@
         <v>170000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3970000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>23.3529</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3970000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6115,10 +6125,10 @@
         <v>160000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3710000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>23.1875</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3710000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6137,10 +6147,10 @@
         <v>165000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>24.5455</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4050000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6159,10 +6169,10 @@
         <v>150000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3645000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>24.3</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3645000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6181,10 +6191,10 @@
         <v>180000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>23.3333</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4200000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6203,10 +6213,10 @@
         <v>190000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>21.0526</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6225,10 +6235,10 @@
         <v>200000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>19.5</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3900000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6246,10 +6256,10 @@
         <v>200000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3850000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>19.25</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3850000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6267,10 +6277,10 @@
         <v>220000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>18.1818</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6288,10 +6298,10 @@
         <v>220000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>17.2727</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6309,10 +6319,10 @@
         <v>250000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4250000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>17</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4250000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6330,10 +6340,10 @@
         <v>300000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4800000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6351,10 +6361,10 @@
         <v>300000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4800000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6690,7 +6700,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6769,10 +6779,10 @@
         <v>849000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>20425000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>24.0577</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>20425000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>37.19</v>
@@ -6791,10 +6801,10 @@
         <v>843000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>20694000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>24.548</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>20694000</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6811,10 +6821,10 @@
         <v>845000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>21181000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>25.0663</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>21181000</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6831,10 +6841,10 @@
         <v>818000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>20550000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>25.1222</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>20550000</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6851,10 +6861,10 @@
         <v>781000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19007000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>24.3367</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19007000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -6873,10 +6883,10 @@
         <v>789000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>19759000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25.0431</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>19759000</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6893,10 +6903,10 @@
         <v>797000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>20708000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>25.9824</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>20708000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1.69</v>
@@ -6915,10 +6925,10 @@
         <v>774000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18732000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>24.2016</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>18732000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6935,10 +6945,10 @@
         <v>767000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16385000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.3625</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16385000</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6955,10 +6965,10 @@
         <v>882030</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>18735910</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.2418</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>18735910</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6975,10 +6985,10 @@
         <v>880000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>18227000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.7125</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>18227000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4</v>
@@ -6997,10 +7007,10 @@
         <v>907000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18653000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.5656</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18653000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2</v>
@@ -7019,10 +7029,10 @@
         <v>865000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16526000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.1052</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>16526000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -7041,10 +7051,10 @@
         <v>634400</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>12433200</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.5984</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>12433200</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>62</v>
@@ -7063,10 +7073,10 @@
         <v>599100</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>11148800</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.6092</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>11148800</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>42</v>
@@ -7085,10 +7095,10 @@
         <v>566000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10303000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.2032</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10303000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>62</v>
@@ -7107,10 +7117,10 @@
         <v>596000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10055000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16.8708</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10055000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>33</v>
@@ -7129,10 +7139,10 @@
         <v>546100</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9820400</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.9828</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9820400</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>41</v>
@@ -7151,10 +7161,10 @@
         <v>505400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8825400</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.4622</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8825400</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>51</v>
@@ -7173,10 +7183,10 @@
         <v>502800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8125600</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16.1607</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8125600</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>5</v>
@@ -7195,10 +7205,10 @@
         <v>478800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7616700</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.9079</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7616700</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>32</v>
@@ -7217,10 +7227,10 @@
         <v>458100</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7462300</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16.2897</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7462300</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7237,10 +7247,10 @@
         <v>460000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7240000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15.7391</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7240000</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7257,10 +7267,10 @@
         <v>460000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7430000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>16.1522</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7430000</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7277,10 +7287,10 @@
         <v>470000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8270000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.5957</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8270000</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7297,10 +7307,10 @@
         <v>410000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6180000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.0732</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6180000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7317,10 +7327,10 @@
         <v>400000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7337,10 +7347,10 @@
         <v>374893</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.0046</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6000000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7357,10 +7367,10 @@
         <v>350000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5260000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>15.0286</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5260000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7377,10 +7387,10 @@
         <v>350000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4930000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>14.0857</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4930000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7397,10 +7407,10 @@
         <v>310000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.129</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7417,10 +7427,10 @@
         <v>308653</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4849568</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15.712</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4849568</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7437,10 +7447,10 @@
         <v>289077</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4244366</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.6825</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4244366</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7457,10 +7467,10 @@
         <v>290279</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4603446</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.8587</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4603446</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7477,10 +7487,10 @@
         <v>344415</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13.356</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>4600000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7497,10 +7507,10 @@
         <v>235776</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3103301</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.1621</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3103301</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7517,10 +7527,10 @@
         <v>293692</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2386776</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.126799999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2386776</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7537,10 +7547,10 @@
         <v>250000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2280000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9.119999999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2280000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7557,10 +7567,10 @@
         <v>260000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.846200000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7577,10 +7587,10 @@
         <v>230000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.1304</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7597,10 +7607,10 @@
         <v>200000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7617,10 +7627,10 @@
         <v>180000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9.722200000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7637,10 +7647,10 @@
         <v>190000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.473700000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7657,10 +7667,10 @@
         <v>160000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.375</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7677,10 +7687,10 @@
         <v>150000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.666700000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7697,10 +7707,10 @@
         <v>100000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9.5</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7717,10 +7727,10 @@
         <v>120000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.5</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1020000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7737,10 +7747,10 @@
         <v>115000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.1304</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1050000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7757,10 +7767,10 @@
         <v>100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>830000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7777,10 +7787,10 @@
         <v>90000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.333299999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7797,10 +7807,10 @@
         <v>70000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>660000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.428600000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>660000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7817,10 +7827,10 @@
         <v>69000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.420299999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7837,10 +7847,10 @@
         <v>67000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>640000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.552200000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>640000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7857,10 +7867,10 @@
         <v>65000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>620000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.538500000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>620000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7877,10 +7887,10 @@
         <v>63000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.5238</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7897,10 +7907,10 @@
         <v>62000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.354799999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7917,10 +7927,10 @@
         <v>60000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9.333299999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>560000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7936,10 +7946,10 @@
         <v>58000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9.3103</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>540000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7955,10 +7965,10 @@
         <v>57000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>525000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.2105</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>525000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -7974,10 +7984,10 @@
         <v>55000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>510000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.2727</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>510000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -7993,10 +8003,10 @@
         <v>53000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>495000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.339600000000001</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>495000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8012,10 +8022,10 @@
         <v>52000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.230799999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>480000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8031,10 +8041,10 @@
         <v>50000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>464000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.279999999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>464000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8368,7 +8378,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8447,10 +8457,10 @@
         <v>166323</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13300000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>79.9649</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>13300000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>626.65</v>
@@ -8469,10 +8479,10 @@
         <v>158719</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>81.9058</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13000000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1125.46</v>
@@ -8491,10 +8501,10 @@
         <v>165204</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>13095258</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>79.2672</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>13095258</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1610.32</v>
@@ -8513,10 +8523,10 @@
         <v>174437</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13204015</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>75.69499999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>13204015</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4184.14</v>
@@ -8535,10 +8545,10 @@
         <v>173421</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>12841990</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>74.051</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>12841990</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1210.41</v>
@@ -8557,10 +8567,10 @@
         <v>169484</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>12150000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>71.68819999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>12150000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1042</v>
@@ -8579,10 +8589,10 @@
         <v>177474</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>12750000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>71.8415</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>12750000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>552.85</v>
@@ -8601,10 +8611,10 @@
         <v>180687</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12600000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>69.7338</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12600000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>786.95</v>
@@ -8623,10 +8633,10 @@
         <v>186996</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>12615000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>67.46130000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>12615000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>494.34</v>
@@ -8645,10 +8655,10 @@
         <v>183029</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11850000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>64.74380000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>11850000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>107</v>
@@ -8667,10 +8677,10 @@
         <v>189122</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11820000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>62.49930000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11820000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>51</v>
@@ -8689,10 +8699,10 @@
         <v>189202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>11350000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>59.9888</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>11350000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>132</v>
@@ -8711,10 +8721,10 @@
         <v>181018</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11003433</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>60.7864</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11003433</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>681</v>
@@ -8733,10 +8743,10 @@
         <v>179125</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10052000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>56.1172</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10052000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>492</v>
@@ -8755,10 +8765,10 @@
         <v>186946</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10745572</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>57.4796</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10745572</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -8777,10 +8787,10 @@
         <v>195205</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10985355</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>56.276</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10985355</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>84</v>
@@ -8799,10 +8809,10 @@
         <v>183533</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9936552</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>54.1404</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9936552</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25</v>
@@ -8821,10 +8831,10 @@
         <v>193910</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9854877</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>50.8219</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9854877</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8843,10 +8853,10 @@
         <v>201116</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>10050000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>49.9712</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>10050000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>56</v>
@@ -8865,10 +8875,10 @@
         <v>204889</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9440000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>46.0737</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9440000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>40</v>
@@ -8887,10 +8897,10 @@
         <v>211290</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>9820000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>46.4764</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>9820000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11</v>
@@ -8909,10 +8919,10 @@
         <v>210630</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9450000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>44.8654</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9450000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>74</v>
@@ -8931,10 +8941,10 @@
         <v>202468</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8425000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>41.6115</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8425000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>55</v>
@@ -8953,10 +8963,10 @@
         <v>208410</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8890000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>42.6563</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8890000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8975,10 +8985,10 @@
         <v>213255</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>41.9967</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8956000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>67</v>
@@ -8997,10 +9007,10 @@
         <v>197888</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8290000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>41.8924</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8290000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>82</v>
@@ -9019,10 +9029,10 @@
         <v>187625</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6600000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>35.1765</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6600000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>30</v>
@@ -9041,10 +9051,10 @@
         <v>188082</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>41.4713</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7800000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13</v>
@@ -9063,10 +9073,10 @@
         <v>182699</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7250000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>39.6828</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7250000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9085,10 +9095,10 @@
         <v>167466</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6350000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>37.9181</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6350000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>13</v>
@@ -9107,10 +9117,10 @@
         <v>162315</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6150000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>37.88930000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6150000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2119</v>
@@ -9129,10 +9139,10 @@
         <v>171823</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>6450000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>37.5386</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>6450000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9151,10 +9161,10 @@
         <v>160915</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>38.5297</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6200000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>129</v>
@@ -9173,10 +9183,10 @@
         <v>158880</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>37.7644</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6000000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1678</v>
@@ -9195,10 +9205,10 @@
         <v>156982</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5750000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>36.6284</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5750000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9217,10 +9227,10 @@
         <v>146258</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5250000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>35.8955</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5250000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9239,10 +9249,10 @@
         <v>139000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>35.9712</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9261,10 +9271,10 @@
         <v>137000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>36.4964</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9283,10 +9293,10 @@
         <v>134000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>36.5672</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4900000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9305,10 +9315,10 @@
         <v>108200</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>36.9686</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9327,10 +9337,10 @@
         <v>108100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>34.2276</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3700000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9349,10 +9359,10 @@
         <v>108000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>34.2593</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3700000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9371,10 +9381,10 @@
         <v>107800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>33.3952</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3600000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9393,10 +9403,10 @@
         <v>108000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3550000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>32.8704</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3550000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9415,10 +9425,10 @@
         <v>107500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>32.5581</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3500000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9437,10 +9447,10 @@
         <v>107000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>30.8411</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9459,10 +9469,10 @@
         <v>106000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>27.3585</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9481,10 +9491,10 @@
         <v>105000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>26.1905</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2750000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9503,10 +9513,10 @@
         <v>100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>23</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9525,10 +9535,10 @@
         <v>97000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>22.1649</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2150000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9547,10 +9557,10 @@
         <v>90000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>22.7778</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2050000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9569,10 +9579,10 @@
         <v>84000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>23.8095</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9591,10 +9601,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>23.75</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9613,10 +9623,10 @@
         <v>75000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1810000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>24.1333</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1810000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9635,10 +9645,10 @@
         <v>67500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1558855</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>23.0941</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1558855</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9657,10 +9667,10 @@
         <v>60000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1346906</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>22.4484</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1346906</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9679,10 +9689,10 @@
         <v>63300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>21.0111</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1330000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9700,10 +9710,10 @@
         <v>62400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1320500</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>21.1619</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1320500</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9721,10 +9731,10 @@
         <v>57400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1281700</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>22.3293</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1281700</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9742,10 +9752,10 @@
         <v>57000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>21.9298</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1250000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9763,10 +9773,10 @@
         <v>57000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1205000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>21.1404</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1205000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9784,10 +9794,10 @@
         <v>57000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1140000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9805,10 +9815,10 @@
         <v>57000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>19.6491</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1120000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10144,7 +10154,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10223,10 +10233,10 @@
         <v>122135</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12370057</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>101.2818</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12370057</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2014493.07</v>
@@ -10245,10 +10255,10 @@
         <v>110076</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>10234317</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>92.97499999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>10234317</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1982138.12</v>
@@ -10267,10 +10277,10 @@
         <v>112180</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10445714</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>93.1157</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10445714</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1939754.5</v>
@@ -10289,10 +10299,10 @@
         <v>110440</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10939109</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>99.0502</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10939109</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1838371.79</v>
@@ -10311,10 +10321,10 @@
         <v>110763</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>10858982</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>98.0384</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>10858982</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1861233.16</v>
@@ -10333,10 +10343,10 @@
         <v>130270</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>12613090</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>96.8227</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>12613090</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1856197.96</v>
@@ -10355,10 +10365,10 @@
         <v>125650</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>11138620</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>88.648</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>11138620</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1788814.46</v>
@@ -10377,10 +10387,10 @@
         <v>141289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12877049</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>91.13980000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12877049</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1786398.89</v>
@@ -10399,10 +10409,10 @@
         <v>162980</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>14580440</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>89.4615</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>14580440</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1573214.8</v>
@@ -10421,10 +10431,10 @@
         <v>163380</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15875000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>97.1661</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>15875000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1550475.42</v>
@@ -10443,10 +10453,10 @@
         <v>152410</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>13828580</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>90.7328</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>13828580</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1537403</v>
@@ -10465,10 +10475,10 @@
         <v>152690</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>14478750</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>94.8245</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>14478750</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1532718</v>
@@ -10487,10 +10497,10 @@
         <v>148850</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>13761700</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>92.45350000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>13761700</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1491017</v>
@@ -10509,10 +10519,10 @@
         <v>158720</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14053000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>88.53960000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>14053000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1532492</v>
@@ -10531,10 +10541,10 @@
         <v>176200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15457480</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>87.7269</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>15457480</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1189602</v>
@@ -10553,10 +10563,10 @@
         <v>161940</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13700670</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>84.60339999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13700670</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1116335</v>
@@ -10575,10 +10585,10 @@
         <v>170658</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>14185180</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>83.12050000000001</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>14185180</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1070808</v>
@@ -10597,10 +10607,10 @@
         <v>169808</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>12257172</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>72.1825</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>12257172</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>992337</v>
@@ -10619,10 +10629,10 @@
         <v>164280</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11918268</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>72.5485</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>11918268</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>951787</v>
@@ -10641,10 +10651,10 @@
         <v>173620</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13987702</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>80.565</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13987702</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>931972</v>
@@ -10663,10 +10673,10 @@
         <v>167388</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11423794</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>68.2474</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11423794</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>939257</v>
@@ -10685,10 +10695,10 @@
         <v>178557</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13466501</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>75.41849999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13466501</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>860097</v>
@@ -10707,10 +10717,10 @@
         <v>164183</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10958809</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>66.7475</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10958809</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>823541</v>
@@ -10729,10 +10739,10 @@
         <v>168509</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12622261</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>74.90560000000001</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12622261</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>730063.2</v>
@@ -10751,10 +10761,10 @@
         <v>195590</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13310800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>68.05460000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13310800</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>740656</v>
@@ -10773,10 +10783,10 @@
         <v>170640</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10009000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>58.6556</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10009000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>847320</v>
@@ -10795,10 +10805,10 @@
         <v>161300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>10534000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>65.3069</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>10534000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>742464</v>
@@ -10817,10 +10827,10 @@
         <v>186060</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11874000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>63.8181</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11874000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>737150</v>
@@ -10839,10 +10849,10 @@
         <v>192380</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11784000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>61.25380000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11784000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>620944</v>
@@ -10861,10 +10871,10 @@
         <v>192340</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>12165000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>63.2474</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>12165000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>396040</v>
@@ -10883,10 +10893,10 @@
         <v>178760</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10441000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>58.4079</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10441000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>418395</v>
@@ -10905,10 +10915,10 @@
         <v>164220</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9730000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>59.2498</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9730000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>196027</v>
@@ -10927,10 +10937,10 @@
         <v>197350</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11405700</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>57.7943</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11405700</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>360770</v>
@@ -10949,10 +10959,10 @@
         <v>198000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>10927000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>55.1869</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>10927000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>360995</v>
@@ -10971,10 +10981,10 @@
         <v>187000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10232700</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>54.7203</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10232700</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>393703</v>
@@ -10993,10 +11003,10 @@
         <v>167800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8348500</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>49.7527</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>8348500</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>370491</v>
@@ -11015,10 +11025,10 @@
         <v>156600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8371820</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>53.4599</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8371820</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>417086</v>
@@ -11037,10 +11047,10 @@
         <v>153000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8134250</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>53.165</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8134250</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>445018</v>
@@ -11059,10 +11069,10 @@
         <v>157400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7859930</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>49.936</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7859930</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>386015</v>
@@ -11081,10 +11091,10 @@
         <v>167700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8245650</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>49.1691</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8245650</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>373796</v>
@@ -11103,10 +11113,10 @@
         <v>168000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7613900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>45.32080000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7613900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>333977</v>
@@ -11125,10 +11135,10 @@
         <v>167940</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7835600</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>46.6571</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7835600</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>268813</v>
@@ -11147,10 +11157,10 @@
         <v>154130</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6364000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>41.2898</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6364000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>238536</v>
@@ -11169,10 +11179,10 @@
         <v>157530</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6785930</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>43.0771</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6785930</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>295633</v>
@@ -11191,10 +11201,10 @@
         <v>177060</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7705700</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>43.52030000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7705700</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>323556</v>
@@ -11213,10 +11223,10 @@
         <v>172300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>6793054</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>39.4257</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>6793054</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>370930</v>
@@ -11235,10 +11245,10 @@
         <v>190640</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7959510</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>41.7515</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7959510</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>359185</v>
@@ -11257,10 +11267,10 @@
         <v>176660</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6858600</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>38.8237</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6858600</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>296352</v>
@@ -11279,10 +11289,10 @@
         <v>205950</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8672150</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>42.108</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8672150</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>257253</v>
@@ -11301,10 +11311,10 @@
         <v>186900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7279122</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>38.9466</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7279122</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>270266</v>
@@ -11323,10 +11333,10 @@
         <v>175670</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6270452</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>35.6945</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6270452</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>341600</v>
@@ -11345,10 +11355,10 @@
         <v>166000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6168779</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>37.1613</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6168779</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>266188</v>
@@ -11367,10 +11377,10 @@
         <v>159640</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5812212</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>36.40819999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5812212</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>260975</v>
@@ -11389,10 +11399,10 @@
         <v>158700</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5416500</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>34.1304</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5416500</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>293349</v>
@@ -11411,10 +11421,10 @@
         <v>167606</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5319794</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>31.7399</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5319794</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>203953</v>
@@ -11433,10 +11443,10 @@
         <v>207870</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7202519</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>34.6492</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7202519</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>177051</v>
@@ -11455,10 +11465,10 @@
         <v>192430</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5639802</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>29.3083</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5639802</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>165919</v>
@@ -11476,10 +11486,10 @@
         <v>182300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5168722</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>28.3528</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5168722</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>163568</v>
@@ -11497,10 +11507,10 @@
         <v>165800</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5017059</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>30.2597</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5017059</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>122001</v>
@@ -11518,10 +11528,10 @@
         <v>173454</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5089017</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>29.3393</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5089017</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>113039</v>
@@ -11539,10 +11549,10 @@
         <v>164454</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4626881</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>28.1348</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4626881</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>109757</v>
@@ -11560,10 +11570,10 @@
         <v>196808</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5840198</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>29.6746</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5840198</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>107133</v>
@@ -11581,10 +11591,10 @@
         <v>189422</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4820709</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>25.4496</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4820709</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>79901</v>
@@ -11920,7 +11930,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11999,10 +12009,10 @@
         <v>155874</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6211015.96</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>39.8463</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6211015.96</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -12019,10 +12029,10 @@
         <v>157702</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6367592</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>40.37730000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6367592</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0</v>
@@ -12041,10 +12051,10 @@
         <v>149956</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6389295</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>42.60769999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6389295</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.02</v>
@@ -12063,10 +12073,10 @@
         <v>159668</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6493950</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>40.6716</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6493950</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.04</v>
@@ -12085,10 +12095,10 @@
         <v>174730</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6814460</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>39</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6814460</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.05</v>
@@ -12107,10 +12117,10 @@
         <v>174802</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6777754</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>38.7739</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6777754</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>242.38</v>
@@ -12129,10 +12139,10 @@
         <v>166206</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6729004</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>40.4859</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6729004</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>77.2</v>
@@ -12151,10 +12161,10 @@
         <v>184972</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7320714</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>39.5774</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7320714</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>252.45</v>
@@ -12173,10 +12183,10 @@
         <v>196853</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7737827</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>39.3076</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7737827</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>31.3</v>
@@ -12195,10 +12205,10 @@
         <v>214016</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8288043</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>38.7263</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8288043</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12215,10 +12225,10 @@
         <v>205276</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8290551</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>40.3873</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8290551</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12237,10 +12247,10 @@
         <v>216395</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8625219</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>39.8587</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>8625219</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>146</v>
@@ -12259,10 +12269,10 @@
         <v>212446</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8105263</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.1521</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8105263</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5341</v>
@@ -12281,10 +12291,10 @@
         <v>216385</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8544993</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>39.4898</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8544993</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23</v>
@@ -12303,10 +12313,10 @@
         <v>251838</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10278539</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>40.8141</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10278539</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>36</v>
@@ -12325,10 +12335,10 @@
         <v>240174</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9204097</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>38.3226</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9204097</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12347,10 +12357,10 @@
         <v>225627</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8639024</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>38.289</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>8639024</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12369,10 +12379,10 @@
         <v>220110</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>8576070</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>38.9627</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>8576070</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>42</v>
@@ -12391,10 +12401,10 @@
         <v>195000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7600000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>38.9744</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7600000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>71</v>
@@ -12413,10 +12423,10 @@
         <v>195164</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7640818</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>39.1508</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7640818</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12435,10 +12445,10 @@
         <v>192976</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7140198</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>37.0004</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7140198</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12457,10 +12467,10 @@
         <v>191171</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6777875</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>35.4545</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6777875</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3</v>
@@ -12479,10 +12489,10 @@
         <v>180721</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6328720</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>35.0193</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6328720</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8</v>
@@ -12501,10 +12511,10 @@
         <v>195444</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6785640</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>34.7191</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6785640</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>37</v>
@@ -12523,10 +12533,10 @@
         <v>189411</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6273760</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>33.1225</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6273760</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20</v>
@@ -12545,10 +12555,10 @@
         <v>177243</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5753279</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>32.4598</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5753279</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>51</v>
@@ -12567,10 +12577,10 @@
         <v>168626</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5873441</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>34.8312</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5873441</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -12589,10 +12599,10 @@
         <v>173152</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5995411</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>34.6251</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5995411</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -12611,10 +12621,10 @@
         <v>149342</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5034197</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>33.7092</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5034197</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17</v>
@@ -12633,10 +12643,10 @@
         <v>148520</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5010682</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>33.7374</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5010682</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -12655,10 +12665,10 @@
         <v>147447</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4762570</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32.3002</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4762570</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12677,10 +12687,10 @@
         <v>152048</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4693985</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>30.8717</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4693985</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>6</v>
@@ -12699,10 +12709,10 @@
         <v>137809</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3795987</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>27.5453</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3795987</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12721,10 +12731,10 @@
         <v>155873</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4233842</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>27.1621</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4233842</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12743,10 +12753,10 @@
         <v>178534</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3997000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>22.3879</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3997000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>29</v>
@@ -12765,10 +12775,10 @@
         <v>168872</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4212000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>24.942</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>4212000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5</v>
@@ -12787,10 +12797,10 @@
         <v>168450</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4921000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>29.2134</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4921000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12809,10 +12819,10 @@
         <v>165510</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4456000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>26.9228</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4456000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>31</v>
@@ -12831,10 +12841,10 @@
         <v>144930</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3576000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>24.674</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3576000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12853,10 +12863,10 @@
         <v>134845</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2993000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>22.1959</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2993000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>5</v>
@@ -12875,10 +12885,10 @@
         <v>136100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2862000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>21.0287</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2862000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12897,10 +12907,10 @@
         <v>135134</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2657045</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>19.6623</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2657045</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12919,10 +12929,10 @@
         <v>136388</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2453525</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>17.9893</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2453525</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12941,10 +12951,10 @@
         <v>139322</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2467793</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>17.7129</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2467793</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12963,10 +12973,10 @@
         <v>138057</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2421528</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>17.5401</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2421528</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12985,10 +12995,10 @@
         <v>130593</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2198523</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16.8349</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2198523</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13007,10 +13017,10 @@
         <v>123276</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1967000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15.9561</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1967000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13029,10 +13039,10 @@
         <v>129385</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2066000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>15.9678</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2066000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>42</v>
@@ -13051,10 +13061,10 @@
         <v>136526</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2107000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.433</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2107000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13073,10 +13083,10 @@
         <v>117202</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>14.7523</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1729000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13095,10 +13105,10 @@
         <v>115942</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1577000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.6016</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1577000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13117,10 +13127,10 @@
         <v>107960</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1668000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.4502</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1668000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13139,10 +13149,10 @@
         <v>104180</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1638000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15.7228</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1638000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13161,10 +13171,10 @@
         <v>99979</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1555000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>15.5533</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1555000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13183,10 +13193,10 @@
         <v>101239</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1548000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.2906</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1548000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13205,10 +13215,10 @@
         <v>98300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1496000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>15.2187</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1496000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13227,10 +13237,10 @@
         <v>88281</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1229755</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.93</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1229755</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13248,10 +13258,10 @@
         <v>85538</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1365959</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>15.969</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1365959</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13269,10 +13279,10 @@
         <v>80179</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1242154</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15.4923</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1242154</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13290,10 +13300,10 @@
         <v>78445</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1192968</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>15.2077</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1192968</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13311,10 +13321,10 @@
         <v>71517</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1055913</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>14.7645</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1055913</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13332,10 +13342,10 @@
         <v>66505</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>986926</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>14.8399</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>986926</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13353,10 +13363,10 @@
         <v>61089</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>869135</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>14.2274</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>869135</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
